--- a/heart-model.xlsx
+++ b/heart-model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kerstin/Documents/FH Technikum/2. Semester/BI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\annaf\PycharmProjects\BI-CellularAutomaton\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B3551D-159D-7B42-9E3A-0B36867EAE09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB233A4-B940-44CD-8931-36A0C0D1CA0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{E47F1E5D-AA44-4195-9BD0-7491BFBC3812}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E47F1E5D-AA44-4195-9BD0-7491BFBC3812}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,20 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>1 = rechter Vorhof</t>
+  </si>
+  <si>
+    <t>7 = linker Vorhof</t>
+  </si>
+  <si>
+    <t>8 = Myokard</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -424,18 +438,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8939FD3-D459-4488-8EA6-7C79B6C85091}">
-  <dimension ref="A1:BP74"/>
+  <dimension ref="A1:BS74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="44" workbookViewId="0">
-      <selection activeCell="AT12" sqref="AT12"/>
+      <selection activeCell="AV11" sqref="AV11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.6328125" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="68" max="68" width="2.6640625" style="4"/>
+    <col min="31" max="31" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="2.6328125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:71" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3">
         <v>0</v>
       </c>
@@ -638,7 +653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:71" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -841,7 +856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:71" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -1043,8 +1058,11 @@
       <c r="BO3" s="3">
         <v>0</v>
       </c>
+      <c r="BS3" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:71" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>0</v>
       </c>
@@ -1246,8 +1264,11 @@
       <c r="BO4" s="3">
         <v>0</v>
       </c>
+      <c r="BS4" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:71" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>0</v>
       </c>
@@ -1449,8 +1470,11 @@
       <c r="BO5" s="3">
         <v>0</v>
       </c>
+      <c r="BS5" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="6" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:71" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>0</v>
       </c>
@@ -1653,7 +1677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:71" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>0</v>
       </c>
@@ -1856,7 +1880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:71" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>0</v>
       </c>
@@ -2059,7 +2083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:71" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>0</v>
       </c>
@@ -2262,7 +2286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:71" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>0</v>
       </c>
@@ -2465,7 +2489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:71" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>0</v>
       </c>
@@ -2560,34 +2584,34 @@
         <v>0</v>
       </c>
       <c r="AF11" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AG11" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AH11" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AI11" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AJ11" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AK11" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AL11" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AM11" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AN11" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AO11" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AP11" s="2">
         <v>0</v>
@@ -2668,7 +2692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:71" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>0</v>
       </c>
@@ -2760,10 +2784,10 @@
         <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AF12" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AG12" s="3">
         <v>0</v>
@@ -2787,13 +2811,13 @@
         <v>0</v>
       </c>
       <c r="AN12" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AO12" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AP12" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AQ12" s="2">
         <v>0</v>
@@ -2871,7 +2895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:71" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>0</v>
       </c>
@@ -2960,10 +2984,10 @@
         <v>0</v>
       </c>
       <c r="AD13" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AE13" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AF13" s="3">
         <v>0</v>
@@ -2996,10 +3020,10 @@
         <v>0</v>
       </c>
       <c r="AP13" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AR13" s="3">
         <v>0</v>
@@ -3074,7 +3098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:71" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>0</v>
       </c>
@@ -3160,10 +3184,10 @@
         <v>0</v>
       </c>
       <c r="AC14" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AD14" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AE14" s="2">
         <v>0</v>
@@ -3202,10 +3226,10 @@
         <v>0</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AR14" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AS14" s="3">
         <v>0</v>
@@ -3277,7 +3301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:71" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>0</v>
       </c>
@@ -3333,25 +3357,25 @@
         <v>2</v>
       </c>
       <c r="S15" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="T15" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="U15" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="V15" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="W15" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="X15" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Y15" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Z15" s="2">
         <v>0</v>
@@ -3363,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AD15" s="2">
         <v>0</v>
@@ -3408,10 +3432,10 @@
         <v>0</v>
       </c>
       <c r="AR15" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AS15" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AT15" s="3">
         <v>0</v>
@@ -3480,7 +3504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:71" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>0</v>
       </c>
@@ -3536,7 +3560,7 @@
         <v>2</v>
       </c>
       <c r="S16" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="T16" s="2">
         <v>0</v>
@@ -3551,22 +3575,22 @@
         <v>0</v>
       </c>
       <c r="X16" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Y16" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Z16" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AA16" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AB16" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AC16" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AD16" s="2">
         <v>0</v>
@@ -3614,10 +3638,10 @@
         <v>0</v>
       </c>
       <c r="AS16" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AT16" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AU16" s="3">
         <v>0</v>
@@ -3683,7 +3707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>0</v>
       </c>
@@ -3763,13 +3787,13 @@
         <v>0</v>
       </c>
       <c r="AA17" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AB17" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AC17" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AD17" s="2">
         <v>0</v>
@@ -3820,7 +3844,7 @@
         <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AU17" s="3">
         <v>0</v>
@@ -3886,7 +3910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>0</v>
       </c>
@@ -3969,10 +3993,10 @@
         <v>0</v>
       </c>
       <c r="AB18" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AC18" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AD18" s="2">
         <v>0</v>
@@ -4023,10 +4047,10 @@
         <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AU18" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AV18" s="3">
         <v>0</v>
@@ -4089,7 +4113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>0</v>
       </c>
@@ -4175,10 +4199,10 @@
         <v>0</v>
       </c>
       <c r="AC19" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AD19" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AE19" s="2">
         <v>0</v>
@@ -4226,10 +4250,10 @@
         <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AU19" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AV19" s="3">
         <v>0</v>
@@ -4292,7 +4316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>0</v>
       </c>
@@ -4381,7 +4405,7 @@
         <v>0</v>
       </c>
       <c r="AD20" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AE20" s="2">
         <v>0</v>
@@ -4426,10 +4450,10 @@
         <v>0</v>
       </c>
       <c r="AS20" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AT20" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AU20" s="2">
         <v>0</v>
@@ -4495,7 +4519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>0</v>
       </c>
@@ -4584,10 +4608,10 @@
         <v>0</v>
       </c>
       <c r="AD21" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AE21" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AF21" s="3">
         <v>0</v>
@@ -4698,7 +4722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>0</v>
       </c>
@@ -4790,10 +4814,10 @@
         <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AF22" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AG22" s="3">
         <v>0</v>
@@ -4838,10 +4862,10 @@
         <v>0</v>
       </c>
       <c r="AU22" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AV22" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AW22" s="3">
         <v>0</v>
@@ -4901,7 +4925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>0</v>
       </c>
@@ -4996,10 +5020,10 @@
         <v>0</v>
       </c>
       <c r="AF23" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AG23" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AH23" s="3">
         <v>0</v>
@@ -5044,10 +5068,10 @@
         <v>0</v>
       </c>
       <c r="AV23" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AW23" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AX23" s="3">
         <v>0</v>
@@ -5104,7 +5128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>0</v>
       </c>
@@ -5193,16 +5217,16 @@
         <v>3</v>
       </c>
       <c r="AD24" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AE24" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AF24" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AG24" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AH24" s="3">
         <v>0</v>
@@ -5247,13 +5271,13 @@
         <v>0</v>
       </c>
       <c r="AV24" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AW24" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AX24" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AY24" s="3">
         <v>0</v>
@@ -5307,7 +5331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>0</v>
       </c>
@@ -5405,7 +5429,7 @@
         <v>0</v>
       </c>
       <c r="AG25" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AH25" s="7">
         <v>4</v>
@@ -5450,13 +5474,13 @@
         <v>0</v>
       </c>
       <c r="AV25" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AW25" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AX25" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AY25" s="3">
         <v>0</v>
@@ -5510,7 +5534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>0</v>
       </c>
@@ -5653,16 +5677,16 @@
         <v>0</v>
       </c>
       <c r="AV26" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AW26" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AX26" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AY26" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AZ26" s="3">
         <v>0</v>
@@ -5713,7 +5737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>0</v>
       </c>
@@ -5859,13 +5883,13 @@
         <v>0</v>
       </c>
       <c r="AW27" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AX27" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AY27" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AZ27" s="3">
         <v>0</v>
@@ -5916,7 +5940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>0</v>
       </c>
@@ -6062,16 +6086,16 @@
         <v>0</v>
       </c>
       <c r="AW28" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AX28" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AY28" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AZ28" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="BA28" s="3">
         <v>0</v>
@@ -6119,7 +6143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>0</v>
       </c>
@@ -6265,16 +6289,16 @@
         <v>0</v>
       </c>
       <c r="AW29" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AX29" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AY29" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AZ29" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="BA29" s="3">
         <v>0</v>
@@ -6322,7 +6346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>0</v>
       </c>
@@ -6471,16 +6495,16 @@
         <v>0</v>
       </c>
       <c r="AX30" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AY30" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AZ30" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="BA30" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="BB30" s="3">
         <v>0</v>
@@ -6525,7 +6549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>0</v>
       </c>
@@ -6677,13 +6701,13 @@
         <v>0</v>
       </c>
       <c r="AY31" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AZ31" s="9">
         <v>6</v>
       </c>
       <c r="BA31" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="BB31" s="3">
         <v>0</v>
@@ -6728,7 +6752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>0</v>
       </c>
@@ -6772,16 +6796,16 @@
         <v>0</v>
       </c>
       <c r="O32" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="P32" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="Q32" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="R32" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="S32" s="2">
         <v>0</v>
@@ -6880,13 +6904,13 @@
         <v>0</v>
       </c>
       <c r="AY32" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AZ32" s="9">
         <v>6</v>
       </c>
       <c r="BA32" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="BB32" s="3">
         <v>0</v>
@@ -6931,7 +6955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>0</v>
       </c>
@@ -6975,19 +6999,19 @@
         <v>0</v>
       </c>
       <c r="O33" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="P33" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="Q33" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="R33" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="S33" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="T33" s="2">
         <v>0</v>
@@ -7083,16 +7107,16 @@
         <v>0</v>
       </c>
       <c r="AY33" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AZ33" s="9">
         <v>6</v>
       </c>
       <c r="BA33" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="BB33" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="BC33" s="2">
         <v>0</v>
@@ -7134,7 +7158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>0</v>
       </c>
@@ -7178,22 +7202,22 @@
         <v>0</v>
       </c>
       <c r="O34" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="P34" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="Q34" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="R34" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="S34" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="T34" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="U34" s="3">
         <v>0</v>
@@ -7295,7 +7319,7 @@
         <v>6</v>
       </c>
       <c r="BB34" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="BC34" s="2">
         <v>0</v>
@@ -7337,7 +7361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>0</v>
       </c>
@@ -7384,22 +7408,22 @@
         <v>0</v>
       </c>
       <c r="P35" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="Q35" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="R35" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="S35" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="T35" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="U35" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="V35" s="3">
         <v>0</v>
@@ -7489,7 +7513,7 @@
         <v>0</v>
       </c>
       <c r="AY35" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AZ35" s="9">
         <v>6</v>
@@ -7498,7 +7522,7 @@
         <v>6</v>
       </c>
       <c r="BB35" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="BC35" s="2">
         <v>0</v>
@@ -7540,7 +7564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>0</v>
       </c>
@@ -7590,22 +7614,22 @@
         <v>0</v>
       </c>
       <c r="Q36" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="R36" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="S36" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="T36" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="U36" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="V36" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="W36" s="2">
         <v>0</v>
@@ -7692,19 +7716,19 @@
         <v>0</v>
       </c>
       <c r="AY36" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AZ36" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="BA36" s="9">
         <v>6</v>
       </c>
       <c r="BB36" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="BC36" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="BD36" s="3">
         <v>0</v>
@@ -7743,7 +7767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>0</v>
       </c>
@@ -7793,22 +7817,22 @@
         <v>0</v>
       </c>
       <c r="Q37" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="R37" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="S37" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="T37" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="U37" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="V37" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="W37" s="2">
         <v>0</v>
@@ -7898,16 +7922,16 @@
         <v>0</v>
       </c>
       <c r="AZ37" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="BA37" s="9">
         <v>6</v>
       </c>
       <c r="BB37" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="BC37" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="BD37" s="3">
         <v>0</v>
@@ -7946,7 +7970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>0</v>
       </c>
@@ -7999,22 +8023,22 @@
         <v>0</v>
       </c>
       <c r="R38" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="S38" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="T38" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="U38" s="9">
         <v>6</v>
       </c>
       <c r="V38" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="W38" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="X38" s="2">
         <v>0</v>
@@ -8101,16 +8125,16 @@
         <v>0</v>
       </c>
       <c r="AZ38" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="BA38" s="9">
         <v>6</v>
       </c>
       <c r="BB38" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="BC38" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="BD38" s="3">
         <v>0</v>
@@ -8149,7 +8173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>0</v>
       </c>
@@ -8205,10 +8229,10 @@
         <v>0</v>
       </c>
       <c r="S39" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="T39" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="U39" s="9">
         <v>6</v>
@@ -8217,10 +8241,10 @@
         <v>6</v>
       </c>
       <c r="W39" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="X39" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="Y39" s="9">
         <v>6</v>
@@ -8304,16 +8328,16 @@
         <v>0</v>
       </c>
       <c r="AZ39" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="BA39" s="9">
         <v>6</v>
       </c>
       <c r="BB39" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="BC39" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="BD39" s="3">
         <v>0</v>
@@ -8352,7 +8376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>0</v>
       </c>
@@ -8411,10 +8435,10 @@
         <v>0</v>
       </c>
       <c r="T40" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="U40" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="V40" s="9">
         <v>6</v>
@@ -8429,10 +8453,10 @@
         <v>6</v>
       </c>
       <c r="Z40" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AA40" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AB40" s="2">
         <v>0</v>
@@ -8507,16 +8531,16 @@
         <v>0</v>
       </c>
       <c r="AZ40" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="BA40" s="9">
         <v>6</v>
       </c>
       <c r="BB40" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="BC40" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="BD40" s="3">
         <v>0</v>
@@ -8555,7 +8579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>0</v>
       </c>
@@ -8620,10 +8644,10 @@
         <v>0</v>
       </c>
       <c r="V41" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="W41" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="X41" s="9">
         <v>6</v>
@@ -8635,13 +8659,13 @@
         <v>6</v>
       </c>
       <c r="AA41" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AB41" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AC41" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AD41" s="2">
         <v>0</v>
@@ -8653,7 +8677,7 @@
         <v>6</v>
       </c>
       <c r="AG41" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AH41" s="3">
         <v>0</v>
@@ -8701,25 +8725,25 @@
         <v>6</v>
       </c>
       <c r="AW41" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AX41" s="2">
         <v>0</v>
       </c>
       <c r="AY41" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AZ41" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="BA41" s="9">
         <v>6</v>
       </c>
       <c r="BB41" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="BC41" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="BD41" s="3">
         <v>0</v>
@@ -8758,7 +8782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>0</v>
       </c>
@@ -8826,13 +8850,13 @@
         <v>0</v>
       </c>
       <c r="W42" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="X42" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="Y42" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="Z42" s="9">
         <v>6</v>
@@ -8844,22 +8868,22 @@
         <v>6</v>
       </c>
       <c r="AC42" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AD42" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AE42" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AF42" s="9">
         <v>6</v>
       </c>
       <c r="AG42" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AH42" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AI42" s="3">
         <v>0</v>
@@ -8904,22 +8928,22 @@
         <v>6</v>
       </c>
       <c r="AW42" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AX42" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AY42" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AZ42" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="BA42" s="9">
         <v>6</v>
       </c>
       <c r="BB42" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="BC42" s="2">
         <v>0</v>
@@ -8961,7 +8985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>0</v>
       </c>
@@ -9035,13 +9059,13 @@
         <v>0</v>
       </c>
       <c r="Y43" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="Z43" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AA43" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AB43" s="9">
         <v>6</v>
@@ -9059,13 +9083,13 @@
         <v>6</v>
       </c>
       <c r="AG43" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AH43" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AI43" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AJ43" s="3">
         <v>0</v>
@@ -9098,22 +9122,22 @@
         <v>0</v>
       </c>
       <c r="AT43" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AU43" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AV43" s="9">
         <v>6</v>
       </c>
       <c r="AW43" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AX43" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AY43" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AZ43" s="9">
         <v>6</v>
@@ -9122,7 +9146,7 @@
         <v>6</v>
       </c>
       <c r="BB43" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="BC43" s="2">
         <v>0</v>
@@ -9164,7 +9188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>0</v>
       </c>
@@ -9244,16 +9268,16 @@
         <v>0</v>
       </c>
       <c r="AA44" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AB44" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AC44" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AD44" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AE44" s="9">
         <v>6</v>
@@ -9268,10 +9292,10 @@
         <v>6</v>
       </c>
       <c r="AI44" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AJ44" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AK44" s="3">
         <v>0</v>
@@ -9301,19 +9325,19 @@
         <v>0</v>
       </c>
       <c r="AT44" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AU44" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AV44" s="9">
         <v>6</v>
       </c>
       <c r="AW44" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AX44" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AY44" s="9">
         <v>6</v>
@@ -9322,10 +9346,10 @@
         <v>6</v>
       </c>
       <c r="BA44" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="BB44" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="BC44" s="2">
         <v>0</v>
@@ -9367,7 +9391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>0</v>
       </c>
@@ -9450,22 +9474,22 @@
         <v>0</v>
       </c>
       <c r="AB45" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AC45" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AD45" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AE45" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AF45" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AG45" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AH45" s="9">
         <v>6</v>
@@ -9474,13 +9498,13 @@
         <v>6</v>
       </c>
       <c r="AJ45" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AK45" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AL45" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AM45" s="9">
         <v>6</v>
@@ -9504,28 +9528,28 @@
         <v>0</v>
       </c>
       <c r="AT45" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AU45" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AV45" s="9">
         <v>6</v>
       </c>
       <c r="AW45" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AX45" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AY45" s="9">
         <v>6</v>
       </c>
       <c r="AZ45" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="BA45" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="BB45" s="2">
         <v>0</v>
@@ -9570,7 +9594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>0</v>
       </c>
@@ -9662,16 +9686,16 @@
         <v>0</v>
       </c>
       <c r="AE46" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AF46" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AG46" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AH46" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AI46" s="9">
         <v>6</v>
@@ -9692,22 +9716,22 @@
         <v>6</v>
       </c>
       <c r="AO46" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AP46" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AQ46" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AR46" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AS46" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AT46" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AU46" s="9">
         <v>6</v>
@@ -9725,10 +9749,10 @@
         <v>6</v>
       </c>
       <c r="AZ46" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="BA46" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="BB46" s="2">
         <v>0</v>
@@ -9773,7 +9797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>0</v>
       </c>
@@ -9877,19 +9901,19 @@
         <v>0</v>
       </c>
       <c r="AI47" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AJ47" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AK47" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AL47" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AM47" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AN47" s="9">
         <v>6</v>
@@ -9919,16 +9943,16 @@
         <v>6</v>
       </c>
       <c r="AW47" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AX47" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AY47" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AZ47" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="BA47" s="2">
         <v>0</v>
@@ -9976,7 +10000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>0</v>
       </c>
@@ -10092,19 +10116,19 @@
         <v>0</v>
       </c>
       <c r="AM48" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AN48" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AO48" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AP48" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AQ48" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AR48" s="9">
         <v>6</v>
@@ -10113,22 +10137,22 @@
         <v>6</v>
       </c>
       <c r="AT48" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AU48" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AV48" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AW48" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AX48" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AY48" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AZ48" s="2">
         <v>0</v>
@@ -10179,7 +10203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>0</v>
       </c>
@@ -10304,28 +10328,28 @@
         <v>0</v>
       </c>
       <c r="AP49" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AQ49" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AR49" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AS49" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AT49" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AU49" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AV49" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AW49" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AX49" s="3">
         <v>0</v>
@@ -10382,8 +10406,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:67" s="4" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:67" s="4" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="51" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -10417,7 +10441,7 @@
       <c r="AE51" s="3"/>
       <c r="AF51" s="3"/>
     </row>
-    <row r="52" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -10451,7 +10475,7 @@
       <c r="AE52" s="3"/>
       <c r="AF52" s="3"/>
     </row>
-    <row r="53" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -10485,7 +10509,7 @@
       <c r="AE53" s="3"/>
       <c r="AF53" s="3"/>
     </row>
-    <row r="54" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -10519,7 +10543,7 @@
       <c r="AE54" s="3"/>
       <c r="AF54" s="3"/>
     </row>
-    <row r="55" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -10553,7 +10577,7 @@
       <c r="AE55" s="3"/>
       <c r="AF55" s="3"/>
     </row>
-    <row r="56" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -10587,7 +10611,7 @@
       <c r="AE56" s="3"/>
       <c r="AF56" s="3"/>
     </row>
-    <row r="57" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -10621,7 +10645,7 @@
       <c r="AE57" s="3"/>
       <c r="AF57" s="3"/>
     </row>
-    <row r="58" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -10655,7 +10679,7 @@
       <c r="AE58" s="3"/>
       <c r="AF58" s="3"/>
     </row>
-    <row r="59" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -10689,7 +10713,7 @@
       <c r="AE59" s="3"/>
       <c r="AF59" s="3"/>
     </row>
-    <row r="60" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -10723,7 +10747,7 @@
       <c r="AE60" s="3"/>
       <c r="AF60" s="3"/>
     </row>
-    <row r="61" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -10757,7 +10781,7 @@
       <c r="AE61" s="3"/>
       <c r="AF61" s="3"/>
     </row>
-    <row r="62" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -10791,7 +10815,7 @@
       <c r="AE62" s="3"/>
       <c r="AF62" s="3"/>
     </row>
-    <row r="63" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -10825,7 +10849,7 @@
       <c r="AE63" s="3"/>
       <c r="AF63" s="3"/>
     </row>
-    <row r="64" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:67" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -10859,7 +10883,7 @@
       <c r="AE64" s="3"/>
       <c r="AF64" s="3"/>
     </row>
-    <row r="65" spans="1:32" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:32" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -10893,7 +10917,7 @@
       <c r="AE65" s="3"/>
       <c r="AF65" s="3"/>
     </row>
-    <row r="66" spans="1:32" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:32" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -10927,7 +10951,7 @@
       <c r="AE66" s="3"/>
       <c r="AF66" s="3"/>
     </row>
-    <row r="67" spans="1:32" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:32" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -10961,7 +10985,7 @@
       <c r="AE67" s="3"/>
       <c r="AF67" s="3"/>
     </row>
-    <row r="68" spans="1:32" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:32" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -10995,7 +11019,7 @@
       <c r="AE68" s="3"/>
       <c r="AF68" s="3"/>
     </row>
-    <row r="69" spans="1:32" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:32" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -11029,7 +11053,7 @@
       <c r="AE69" s="3"/>
       <c r="AF69" s="3"/>
     </row>
-    <row r="70" spans="1:32" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:32" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -11063,7 +11087,7 @@
       <c r="AE70" s="3"/>
       <c r="AF70" s="3"/>
     </row>
-    <row r="71" spans="1:32" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:32" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -11097,7 +11121,7 @@
       <c r="AE71" s="3"/>
       <c r="AF71" s="3"/>
     </row>
-    <row r="72" spans="1:32" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:32" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -11131,7 +11155,7 @@
       <c r="AE72" s="3"/>
       <c r="AF72" s="3"/>
     </row>
-    <row r="73" spans="1:32" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:32" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -11165,7 +11189,7 @@
       <c r="AE73" s="3"/>
       <c r="AF73" s="3"/>
     </row>
-    <row r="74" spans="1:32" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:32" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
